--- a/src/01_programacion_actividades.xlsx
+++ b/src/01_programacion_actividades.xlsx
@@ -8,13 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="programacion" sheetId="1" r:id="rId1"/>
+    <sheet name="5" sheetId="2" r:id="rId2"/>
+    <sheet name="6" sheetId="3" r:id="rId3"/>
+    <sheet name="7" sheetId="4" r:id="rId4"/>
+    <sheet name="8" sheetId="5" r:id="rId5"/>
+    <sheet name="9" sheetId="6" r:id="rId6"/>
+    <sheet name="10" sheetId="7" r:id="rId7"/>
+    <sheet name="11" sheetId="8" r:id="rId8"/>
+    <sheet name="12" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="137">
   <si>
     <t>Programación inicial base de actividades 2025 - 240 días calendarios</t>
   </si>
@@ -287,6 +295,144 @@
   </si>
   <si>
     <t>Reparación de Pontones</t>
+  </si>
+  <si>
+    <t>Formato N° 3</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Mayo 2025</t>
+  </si>
+  <si>
+    <t>Contratista: Grupo ARICOL</t>
+  </si>
+  <si>
+    <t>Código de ruta: Emp. R0405105(CABANACONDE)-CHOCO(LD.PROV. CASTILLA)</t>
+  </si>
+  <si>
+    <t>Código de tramo: Emp. R0405105(CABANACONDE)-CHOCO(LD.PROV. CASTILLA)</t>
+  </si>
+  <si>
+    <t>Categoría: Vecinal</t>
+  </si>
+  <si>
+    <t>Jefe de mantenimiento: Ing. Jorge Luis Huaman Ccahuana</t>
+  </si>
+  <si>
+    <t>Meta: 14+064 Km</t>
+  </si>
+  <si>
+    <t>Número de trabajadores: 4</t>
+  </si>
+  <si>
+    <t>Sector: Emp. R0405105(CABANACONDE)-CHOCO(LD.PROV. CASTILLA)</t>
+  </si>
+  <si>
+    <t>Cuadrilla: Única</t>
+  </si>
+  <si>
+    <t>N.º</t>
+  </si>
+  <si>
+    <t>Rend Unit.</t>
+  </si>
+  <si>
+    <t>Mes: Mayo</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Actividades a ejecutar</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Junio 2025</t>
+  </si>
+  <si>
+    <t>Mes: Junio</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Julio 2025</t>
+  </si>
+  <si>
+    <t>Mes: Julio</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Agosto 2025</t>
+  </si>
+  <si>
+    <t>Mes: Agosto</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Septiembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Septiembre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Octubre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Octubre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Noviembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Noviembre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Diciembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Diciembre</t>
   </si>
 </sst>
 </file>
@@ -357,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +524,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2122,4 +2275,8867 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AK39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="AK18" s="7">
+        <f>SUM(F18:AJ18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>SUM(F20:AJ20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="J21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>SUM(F21:AJ21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="S23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="T23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="U23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="X23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>SUM(F25:AJ25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" s="7">
+        <f>SUM(F26:AJ26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="7">
+        <f>SUM(F27:AJ27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="7">
+        <f>SUM(F28:AJ28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AK30" s="7">
+        <f>SUM(F30:AJ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK32" s="7">
+        <f>SUM(F32:AJ32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="7">
+        <f>SUM(F34:AJ34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI36" s="9">
+        <v>22.534</v>
+      </c>
+      <c r="AK36" s="7">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK38" s="7">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="7">
+        <f>SUM(F39:AJ39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A5:AK5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="A17:AK17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AK39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AJ39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="35" width="5.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:36">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f>SUM(F18:AI18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f>SUM(F19:AI19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>SUM(F20:AI20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="W21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>SUM(F21:AI21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="R23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="U23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="V23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="W23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AJ23" s="7">
+        <f>SUM(F23:AI23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="H25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f>SUM(F25:AI25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f>SUM(F26:AI26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ27" s="7">
+        <f>SUM(F27:AI27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f>SUM(F28:AI28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="K30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="N30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="O30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="P30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="AJ30" s="7">
+        <f>SUM(F30:AI30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="9">
+        <v>5.866</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f>SUM(F32:AI32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ34" s="7">
+        <f>SUM(F34:AI34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>22.534</v>
+      </c>
+      <c r="AJ36" s="7">
+        <f>SUM(F36:AI36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="9">
+        <v>3.866</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f>SUM(F38:AI38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ39" s="7">
+        <f>SUM(F39:AI39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AJ4"/>
+    <mergeCell ref="A5:AJ5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AJ13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="A17:AJ17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AJ39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AK39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="AK18" s="7">
+        <f>SUM(F18:AJ18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="W19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>SUM(F20:AJ20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>SUM(F21:AJ21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="N23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="O23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="P23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="S23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="T23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>SUM(F25:AJ25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" s="7">
+        <f>SUM(F26:AJ26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="7">
+        <f>SUM(F27:AJ27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="7">
+        <f>SUM(F28:AJ28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AK30" s="7">
+        <f>SUM(F30:AJ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="9">
+        <v>5.866</v>
+      </c>
+      <c r="AK32" s="7">
+        <f>SUM(F32:AJ32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="7">
+        <f>SUM(F34:AJ34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK36" s="7">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="9">
+        <v>3.866</v>
+      </c>
+      <c r="AK38" s="7">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="7">
+        <f>SUM(F39:AJ39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A5:AK5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="A17:AK17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AK39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AK39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="AK18" s="7">
+        <f>SUM(F18:AJ18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="W19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="X19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>SUM(F20:AJ20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="T21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>SUM(F21:AJ21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="I23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="J23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="L23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="M23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="P23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>SUM(F25:AJ25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" s="7">
+        <f>SUM(F26:AJ26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="7">
+        <f>SUM(F27:AJ27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="7">
+        <f>SUM(F28:AJ28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AK30" s="7">
+        <f>SUM(F30:AJ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="9">
+        <v>5.866</v>
+      </c>
+      <c r="AK32" s="7">
+        <f>SUM(F32:AJ32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="7">
+        <f>SUM(F34:AJ34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK36" s="7">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK38" s="7">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="7">
+        <f>SUM(F39:AJ39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A5:AK5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="A17:AK17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AK39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AJ39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="35" width="5.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:36">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f>SUM(F18:AI18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f>SUM(F19:AI19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>SUM(F20:AI20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="U21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>SUM(F21:AI21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="W23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="X23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AJ23" s="7">
+        <f>SUM(F23:AI23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f>SUM(F25:AI25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f>SUM(F26:AI26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ27" s="7">
+        <f>SUM(F27:AI27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f>SUM(F28:AI28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="G30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="H30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="I30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="J30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="AJ30" s="7">
+        <f>SUM(F30:AI30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5.866</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f>SUM(F32:AI32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ34" s="7">
+        <f>SUM(F34:AI34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>22.534</v>
+      </c>
+      <c r="AJ36" s="7">
+        <f>SUM(F36:AI36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="9">
+        <v>3.866</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f>SUM(F38:AI38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ39" s="7">
+        <f>SUM(F39:AI39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AJ4"/>
+    <mergeCell ref="A5:AJ5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AJ13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="A17:AJ17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AJ39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AK39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.385111111111111</v>
+      </c>
+      <c r="AK18" s="7">
+        <f>SUM(F18:AJ18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="T19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="U19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="V19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>SUM(F20:AJ20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="T21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>SUM(F21:AJ21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="G23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="H23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="K23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="L23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="N23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>SUM(F25:AJ25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" s="7">
+        <f>SUM(F26:AJ26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="7">
+        <f>SUM(F27:AJ27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="7">
+        <f>SUM(F28:AJ28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>901.6288636363635</v>
+      </c>
+      <c r="AK30" s="7">
+        <f>SUM(F30:AJ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK32" s="7">
+        <f>SUM(F32:AJ32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="7">
+        <f>SUM(F34:AJ34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK36" s="7">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="9">
+        <v>3.866</v>
+      </c>
+      <c r="AK38" s="7">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="7">
+        <f>SUM(F39:AJ39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A5:AK5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="A17:AK17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AK39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AJ39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="35" width="5.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:36">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f>SUM(F18:AI18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f>SUM(F19:AI19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>SUM(F20:AI20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="X21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>SUM(F21:AI21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AJ23" s="7">
+        <f>SUM(F23:AI23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="I25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f>SUM(F25:AI25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f>SUM(F26:AI26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ27" s="7">
+        <f>SUM(F27:AI27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f>SUM(F28:AI28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="O30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="P30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="R30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="AJ30" s="7">
+        <f>SUM(F30:AI30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>5.866</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f>SUM(F32:AI32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ34" s="7">
+        <f>SUM(F34:AI34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG36" s="9">
+        <v>22.534</v>
+      </c>
+      <c r="AJ36" s="7">
+        <f>SUM(F36:AI36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" s="9">
+        <v>3.866</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f>SUM(F38:AI38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ39" s="7">
+        <f>SUM(F39:AI39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AJ4"/>
+    <mergeCell ref="A5:AJ5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AJ13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="A17:AJ17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AJ39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AK39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="36" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:37">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>9</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9">
+        <v>13</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="T16" s="9">
+        <v>15</v>
+      </c>
+      <c r="U16" s="9">
+        <v>16</v>
+      </c>
+      <c r="V16" s="9">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9">
+        <v>18</v>
+      </c>
+      <c r="X16" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.3851111111111111</v>
+      </c>
+      <c r="AK18" s="7">
+        <f>SUM(F18:AJ18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>30.62966666666667</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>SUM(F19:AJ19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>SUM(F20:AJ20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.505625</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>SUM(F21:AJ21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>378.7879545454545</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>SUM(F23:AJ23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="9">
+        <v>42.42454545454546</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>SUM(F25:AJ25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" s="7">
+        <f>SUM(F26:AJ26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="7">
+        <f>SUM(F27:AJ27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="7">
+        <f>SUM(F28:AJ28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="T30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="U30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="V30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="W30" s="9">
+        <v>901.6288636363636</v>
+      </c>
+      <c r="AK30" s="7">
+        <f>SUM(F30:AJ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK32" s="7">
+        <f>SUM(F32:AJ32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="7">
+        <f>SUM(F34:AJ34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>22.534</v>
+      </c>
+      <c r="AK36" s="7">
+        <f>SUM(F36:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK38" s="7">
+        <f>SUM(F38:AJ38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="7">
+        <f>SUM(F39:AJ39)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A5:AK5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="W7:AI7"/>
+    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W9:AI9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="A17:AK17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F17:AK39">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>